--- a/tests/testthat/write_xlsx_helper.xlsx
+++ b/tests/testthat/write_xlsx_helper.xlsx
@@ -3,85 +3,85 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="mtcars1" r:id="rId3" sheetId="1"/>
-    <sheet name="iris1" r:id="rId4" sheetId="2"/>
-    <sheet name="mtcars2" r:id="rId5" sheetId="3"/>
+    <sheet name="mtcars1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="iris1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mtcars2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>mpg</t>
+    <t xml:space="preserve">mpg</t>
   </si>
   <si>
-    <t>cyl</t>
+    <t xml:space="preserve">cyl</t>
   </si>
   <si>
-    <t>disp</t>
+    <t xml:space="preserve">disp</t>
   </si>
   <si>
-    <t>hp</t>
+    <t xml:space="preserve">hp</t>
   </si>
   <si>
-    <t>drat</t>
+    <t xml:space="preserve">drat</t>
   </si>
   <si>
-    <t>wt</t>
+    <t xml:space="preserve">wt</t>
   </si>
   <si>
-    <t>qsec</t>
+    <t xml:space="preserve">qsec</t>
   </si>
   <si>
-    <t>vs</t>
+    <t xml:space="preserve">vs</t>
   </si>
   <si>
-    <t>am</t>
+    <t xml:space="preserve">am</t>
   </si>
   <si>
-    <t>gear</t>
+    <t xml:space="preserve">gear</t>
   </si>
   <si>
-    <t>carb</t>
+    <t xml:space="preserve">carb</t>
   </si>
   <si>
-    <t>Sepal.Length</t>
+    <t xml:space="preserve">Sepal.Length</t>
   </si>
   <si>
-    <t>Sepal.Width</t>
+    <t xml:space="preserve">Sepal.Width</t>
   </si>
   <si>
-    <t>Petal.Length</t>
+    <t xml:space="preserve">Petal.Length</t>
   </si>
   <si>
-    <t>Petal.Width</t>
+    <t xml:space="preserve">Petal.Width</t>
   </si>
   <si>
-    <t>Species</t>
+    <t xml:space="preserve">Species</t>
   </si>
   <si>
-    <t>setosa</t>
+    <t xml:space="preserve">setosa</t>
   </si>
   <si>
-    <t>versicolor</t>
+    <t xml:space="preserve">versicolor</t>
   </si>
   <si>
-    <t>virginica</t>
+    <t xml:space="preserve">virginica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,7 +92,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -110,14 +110,295 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -158,16 +439,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
         <v>3.9</v>
@@ -179,30 +460,30 @@
         <v>16.46</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
         <v>3.9</v>
@@ -214,16 +495,16 @@
         <v>17.02</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -231,13 +512,13 @@
         <v>22.8</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
         <v>3.85</v>
@@ -249,16 +530,16 @@
         <v>18.61</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -266,13 +547,13 @@
         <v>21.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="D5" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
         <v>3.08</v>
@@ -284,16 +565,16 @@
         <v>19.44</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -301,13 +582,13 @@
         <v>18.7</v>
       </c>
       <c r="B6" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="D6" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E6" t="n">
         <v>3.15</v>
@@ -319,16 +600,16 @@
         <v>17.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -336,13 +617,13 @@
         <v>18.1</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="D7" t="n">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
         <v>2.76</v>
@@ -354,16 +635,16 @@
         <v>20.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -371,13 +652,13 @@
         <v>14.3</v>
       </c>
       <c r="B8" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="D8" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="E8" t="n">
         <v>3.21</v>
@@ -389,16 +670,16 @@
         <v>15.84</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -406,13 +687,13 @@
         <v>24.4</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>146.7</v>
       </c>
       <c r="D9" t="n">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>3.69</v>
@@ -421,19 +702,19 @@
         <v>3.19</v>
       </c>
       <c r="G9" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -441,13 +722,13 @@
         <v>22.8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>140.8</v>
       </c>
       <c r="D10" t="n">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E10" t="n">
         <v>3.92</v>
@@ -459,16 +740,16 @@
         <v>22.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -476,13 +757,13 @@
         <v>19.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>167.6</v>
       </c>
       <c r="D11" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="E11" t="n">
         <v>3.92</v>
@@ -494,16 +775,16 @@
         <v>18.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -511,13 +792,13 @@
         <v>17.8</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>167.6</v>
       </c>
       <c r="D12" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="E12" t="n">
         <v>3.92</v>
@@ -529,16 +810,16 @@
         <v>18.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -546,13 +827,13 @@
         <v>16.4</v>
       </c>
       <c r="B13" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>275.8</v>
       </c>
       <c r="D13" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E13" t="n">
         <v>3.07</v>
@@ -564,16 +845,16 @@
         <v>17.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -581,13 +862,13 @@
         <v>17.3</v>
       </c>
       <c r="B14" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>275.8</v>
       </c>
       <c r="D14" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E14" t="n">
         <v>3.07</v>
@@ -599,16 +880,16 @@
         <v>17.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -616,13 +897,13 @@
         <v>15.2</v>
       </c>
       <c r="B15" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>275.8</v>
       </c>
       <c r="D15" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E15" t="n">
         <v>3.07</v>
@@ -631,19 +912,19 @@
         <v>3.78</v>
       </c>
       <c r="G15" t="n">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +932,13 @@
         <v>10.4</v>
       </c>
       <c r="B16" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="D16" t="n">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="E16" t="n">
         <v>2.93</v>
@@ -669,16 +950,16 @@
         <v>17.98</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -686,16 +967,16 @@
         <v>10.4</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="D17" t="n">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>5.424</v>
@@ -704,16 +985,16 @@
         <v>17.82</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -721,13 +1002,13 @@
         <v>14.7</v>
       </c>
       <c r="B18" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="D18" t="n">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="E18" t="n">
         <v>3.23</v>
@@ -739,16 +1020,16 @@
         <v>17.42</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -756,13 +1037,13 @@
         <v>32.4</v>
       </c>
       <c r="B19" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>78.7</v>
       </c>
       <c r="D19" t="n">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
         <v>4.08</v>
@@ -774,16 +1055,16 @@
         <v>19.47</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -791,13 +1072,13 @@
         <v>30.4</v>
       </c>
       <c r="B20" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>75.7</v>
       </c>
       <c r="D20" t="n">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
         <v>4.93</v>
@@ -809,16 +1090,16 @@
         <v>18.52</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +1107,13 @@
         <v>33.9</v>
       </c>
       <c r="B21" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>71.1</v>
       </c>
       <c r="D21" t="n">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
         <v>4.22</v>
@@ -844,16 +1125,16 @@
         <v>19.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -861,13 +1142,13 @@
         <v>21.5</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>120.1</v>
       </c>
       <c r="D22" t="n">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="E22" t="n">
         <v>3.7</v>
@@ -879,16 +1160,16 @@
         <v>20.01</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -896,13 +1177,13 @@
         <v>15.5</v>
       </c>
       <c r="B23" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="D23" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E23" t="n">
         <v>2.76</v>
@@ -914,16 +1195,16 @@
         <v>16.87</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -931,13 +1212,13 @@
         <v>15.2</v>
       </c>
       <c r="B24" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="D24" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E24" t="n">
         <v>3.15</v>
@@ -949,16 +1230,16 @@
         <v>17.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +1247,13 @@
         <v>13.3</v>
       </c>
       <c r="B25" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="D25" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="E25" t="n">
         <v>3.73</v>
@@ -984,16 +1265,16 @@
         <v>15.41</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1001,13 +1282,13 @@
         <v>19.2</v>
       </c>
       <c r="B26" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="D26" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E26" t="n">
         <v>3.08</v>
@@ -1019,16 +1300,16 @@
         <v>17.05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1036,13 +1317,13 @@
         <v>27.3</v>
       </c>
       <c r="B27" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="D27" t="n">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E27" t="n">
         <v>4.08</v>
@@ -1054,30 +1335,30 @@
         <v>18.9</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>120.3</v>
       </c>
       <c r="D28" t="n">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E28" t="n">
         <v>4.43</v>
@@ -1089,16 +1370,16 @@
         <v>16.7</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1106,13 +1387,13 @@
         <v>30.4</v>
       </c>
       <c r="B29" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>95.1</v>
       </c>
       <c r="D29" t="n">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="E29" t="n">
         <v>3.77</v>
@@ -1124,16 +1405,16 @@
         <v>16.9</v>
       </c>
       <c r="H29" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1141,13 +1422,13 @@
         <v>15.8</v>
       </c>
       <c r="B30" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="D30" t="n">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="E30" t="n">
         <v>4.22</v>
@@ -1159,16 +1440,16 @@
         <v>14.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1176,13 +1457,13 @@
         <v>19.7</v>
       </c>
       <c r="B31" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="D31" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E31" t="n">
         <v>3.62</v>
@@ -1194,30 +1475,30 @@
         <v>15.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="D32" t="n">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="E32" t="n">
         <v>3.54</v>
@@ -1229,16 +1510,16 @@
         <v>14.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1246,13 +1527,13 @@
         <v>21.4</v>
       </c>
       <c r="B33" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="D33" t="n">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="E33" t="n">
         <v>4.11</v>
@@ -1264,28 +1545,29 @@
         <v>18.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -1328,7 +1610,7 @@
         <v>4.9</v>
       </c>
       <c r="B3" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1.4</v>
@@ -1376,7 +1658,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>3.6</v>
@@ -1427,7 +1709,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3.4</v>
@@ -1515,7 +1797,7 @@
         <v>4.8</v>
       </c>
       <c r="B14" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1.4</v>
@@ -1532,7 +1814,7 @@
         <v>4.3</v>
       </c>
       <c r="B15" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>1.1</v>
@@ -1549,7 +1831,7 @@
         <v>5.8</v>
       </c>
       <c r="B16" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>1.2</v>
@@ -1688,7 +1970,7 @@
         <v>3.6</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0.2</v>
@@ -1733,10 +2015,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>1.6</v>
@@ -1750,7 +2032,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
         <v>3.4</v>
@@ -1903,7 +2185,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B37" t="n">
         <v>3.2</v>
@@ -1957,7 +2239,7 @@
         <v>4.4</v>
       </c>
       <c r="B40" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
         <v>1.3</v>
@@ -1988,7 +2270,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B42" t="n">
         <v>3.5</v>
@@ -2039,7 +2321,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B45" t="n">
         <v>3.5</v>
@@ -2076,7 +2358,7 @@
         <v>4.8</v>
       </c>
       <c r="B47" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>1.4</v>
@@ -2141,7 +2423,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B51" t="n">
         <v>3.3</v>
@@ -2158,7 +2440,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B52" t="n">
         <v>3.2</v>
@@ -2215,7 +2497,7 @@
         <v>2.3</v>
       </c>
       <c r="C55" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>1.3</v>
@@ -2286,7 +2568,7 @@
         <v>3.3</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
@@ -2328,16 +2610,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
         <v>3.5</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -2348,7 +2630,7 @@
         <v>5.9</v>
       </c>
       <c r="B63" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
         <v>4.2</v>
@@ -2362,16 +2644,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B64" t="n">
         <v>2.2</v>
       </c>
       <c r="C64" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -2433,7 +2715,7 @@
         <v>5.6</v>
       </c>
       <c r="B68" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
         <v>4.5</v>
@@ -2456,7 +2738,7 @@
         <v>4.1</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
@@ -2521,7 +2803,7 @@
         <v>2.8</v>
       </c>
       <c r="C73" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>1.3</v>
@@ -2586,7 +2868,7 @@
         <v>6.6</v>
       </c>
       <c r="B77" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
         <v>4.4</v>
@@ -2620,10 +2902,10 @@
         <v>6.7</v>
       </c>
       <c r="B79" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>1.7</v>
@@ -2634,7 +2916,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B80" t="n">
         <v>2.9</v>
@@ -2660,7 +2942,7 @@
         <v>3.5</v>
       </c>
       <c r="D81" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
@@ -2694,7 +2976,7 @@
         <v>3.7</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>17</v>
@@ -2719,7 +3001,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B85" t="n">
         <v>2.7</v>
@@ -2739,7 +3021,7 @@
         <v>5.4</v>
       </c>
       <c r="B86" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
         <v>4.5</v>
@@ -2753,7 +3035,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B87" t="n">
         <v>3.4</v>
@@ -2807,7 +3089,7 @@
         <v>5.6</v>
       </c>
       <c r="B90" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
         <v>4.1</v>
@@ -2827,7 +3109,7 @@
         <v>2.5</v>
       </c>
       <c r="C91" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>1.3</v>
@@ -2858,7 +3140,7 @@
         <v>6.1</v>
       </c>
       <c r="B93" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
         <v>4.6</v>
@@ -2878,7 +3160,7 @@
         <v>2.6</v>
       </c>
       <c r="C94" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>1.2</v>
@@ -2889,7 +3171,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B95" t="n">
         <v>2.3</v>
@@ -2898,7 +3180,7 @@
         <v>3.3</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
@@ -2926,7 +3208,7 @@
         <v>5.7</v>
       </c>
       <c r="B97" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
         <v>4.2</v>
@@ -2980,7 +3262,7 @@
         <v>2.5</v>
       </c>
       <c r="C100" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>1.1</v>
@@ -3014,7 +3296,7 @@
         <v>3.3</v>
       </c>
       <c r="C102" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
         <v>2.5</v>
@@ -3045,7 +3327,7 @@
         <v>7.1</v>
       </c>
       <c r="B104" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
         <v>5.9</v>
@@ -3079,7 +3361,7 @@
         <v>6.5</v>
       </c>
       <c r="B106" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
         <v>5.8</v>
@@ -3096,7 +3378,7 @@
         <v>7.6</v>
       </c>
       <c r="B107" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
         <v>6.6</v>
@@ -3187,7 +3469,7 @@
         <v>5.1</v>
       </c>
       <c r="D112" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
         <v>18</v>
@@ -3215,7 +3497,7 @@
         <v>6.8</v>
       </c>
       <c r="B114" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
         <v>5.5</v>
@@ -3235,10 +3517,10 @@
         <v>2.5</v>
       </c>
       <c r="C115" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E115" t="s">
         <v>18</v>
@@ -3283,7 +3565,7 @@
         <v>6.5</v>
       </c>
       <c r="B118" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
         <v>5.5</v>
@@ -3331,13 +3613,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
         <v>2.2</v>
       </c>
       <c r="C121" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
         <v>1.5</v>
@@ -3374,7 +3656,7 @@
         <v>4.9</v>
       </c>
       <c r="D123" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>18</v>
@@ -3391,7 +3673,7 @@
         <v>6.7</v>
       </c>
       <c r="D124" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E124" t="s">
         <v>18</v>
@@ -3439,7 +3721,7 @@
         <v>3.2</v>
       </c>
       <c r="C127" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
         <v>1.8</v>
@@ -3470,7 +3752,7 @@
         <v>6.1</v>
       </c>
       <c r="B129" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
         <v>4.9</v>
@@ -3504,7 +3786,7 @@
         <v>7.2</v>
       </c>
       <c r="B131" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
         <v>5.8</v>
@@ -3544,7 +3826,7 @@
         <v>6.4</v>
       </c>
       <c r="D133" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
         <v>18</v>
@@ -3606,7 +3888,7 @@
         <v>7.7</v>
       </c>
       <c r="B137" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
         <v>6.1</v>
@@ -3654,10 +3936,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B140" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
         <v>4.8</v>
@@ -3776,7 +4058,7 @@
         <v>6.7</v>
       </c>
       <c r="B147" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
         <v>5.2</v>
@@ -3796,7 +4078,7 @@
         <v>2.5</v>
       </c>
       <c r="C148" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
         <v>1.9</v>
@@ -3810,13 +4092,13 @@
         <v>6.5</v>
       </c>
       <c r="B149" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
         <v>5.2</v>
       </c>
       <c r="D149" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
@@ -3844,7 +4126,7 @@
         <v>5.9</v>
       </c>
       <c r="B151" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
         <v>5.1</v>
@@ -3857,15 +4139,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -3906,16 +4189,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
         <v>3.9</v>
@@ -3927,30 +4210,30 @@
         <v>16.46</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
         <v>3.9</v>
@@ -3962,16 +4245,16 @@
         <v>17.02</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3979,13 +4262,13 @@
         <v>22.8</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
         <v>3.85</v>
@@ -3997,16 +4280,16 @@
         <v>18.61</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4014,13 +4297,13 @@
         <v>21.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="D5" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
         <v>3.08</v>
@@ -4032,16 +4315,16 @@
         <v>19.44</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4049,13 +4332,13 @@
         <v>18.7</v>
       </c>
       <c r="B6" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="D6" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E6" t="n">
         <v>3.15</v>
@@ -4067,16 +4350,16 @@
         <v>17.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4084,13 +4367,13 @@
         <v>18.1</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="D7" t="n">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
         <v>2.76</v>
@@ -4102,16 +4385,16 @@
         <v>20.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4119,13 +4402,13 @@
         <v>14.3</v>
       </c>
       <c r="B8" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="D8" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="E8" t="n">
         <v>3.21</v>
@@ -4137,16 +4420,16 @@
         <v>15.84</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -4154,13 +4437,13 @@
         <v>24.4</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>146.7</v>
       </c>
       <c r="D9" t="n">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>3.69</v>
@@ -4169,19 +4452,19 @@
         <v>3.19</v>
       </c>
       <c r="G9" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -4189,13 +4472,13 @@
         <v>22.8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>140.8</v>
       </c>
       <c r="D10" t="n">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E10" t="n">
         <v>3.92</v>
@@ -4207,16 +4490,16 @@
         <v>22.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4224,13 +4507,13 @@
         <v>19.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>167.6</v>
       </c>
       <c r="D11" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="E11" t="n">
         <v>3.92</v>
@@ -4242,16 +4525,16 @@
         <v>18.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -4259,13 +4542,13 @@
         <v>17.8</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>167.6</v>
       </c>
       <c r="D12" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="E12" t="n">
         <v>3.92</v>
@@ -4277,16 +4560,16 @@
         <v>18.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -4294,13 +4577,13 @@
         <v>16.4</v>
       </c>
       <c r="B13" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>275.8</v>
       </c>
       <c r="D13" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E13" t="n">
         <v>3.07</v>
@@ -4312,16 +4595,16 @@
         <v>17.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -4329,13 +4612,13 @@
         <v>17.3</v>
       </c>
       <c r="B14" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>275.8</v>
       </c>
       <c r="D14" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E14" t="n">
         <v>3.07</v>
@@ -4347,16 +4630,16 @@
         <v>17.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4364,13 +4647,13 @@
         <v>15.2</v>
       </c>
       <c r="B15" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>275.8</v>
       </c>
       <c r="D15" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E15" t="n">
         <v>3.07</v>
@@ -4379,19 +4662,19 @@
         <v>3.78</v>
       </c>
       <c r="G15" t="n">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -4399,13 +4682,13 @@
         <v>10.4</v>
       </c>
       <c r="B16" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="D16" t="n">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="E16" t="n">
         <v>2.93</v>
@@ -4417,16 +4700,16 @@
         <v>17.98</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -4434,16 +4717,16 @@
         <v>10.4</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="D17" t="n">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>5.424</v>
@@ -4452,16 +4735,16 @@
         <v>17.82</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4469,13 +4752,13 @@
         <v>14.7</v>
       </c>
       <c r="B18" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="D18" t="n">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="E18" t="n">
         <v>3.23</v>
@@ -4487,16 +4770,16 @@
         <v>17.42</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4504,13 +4787,13 @@
         <v>32.4</v>
       </c>
       <c r="B19" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>78.7</v>
       </c>
       <c r="D19" t="n">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
         <v>4.08</v>
@@ -4522,16 +4805,16 @@
         <v>19.47</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4539,13 +4822,13 @@
         <v>30.4</v>
       </c>
       <c r="B20" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>75.7</v>
       </c>
       <c r="D20" t="n">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
         <v>4.93</v>
@@ -4557,16 +4840,16 @@
         <v>18.52</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4574,13 +4857,13 @@
         <v>33.9</v>
       </c>
       <c r="B21" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>71.1</v>
       </c>
       <c r="D21" t="n">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
         <v>4.22</v>
@@ -4592,16 +4875,16 @@
         <v>19.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -4609,13 +4892,13 @@
         <v>21.5</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>120.1</v>
       </c>
       <c r="D22" t="n">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="E22" t="n">
         <v>3.7</v>
@@ -4627,16 +4910,16 @@
         <v>20.01</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -4644,13 +4927,13 @@
         <v>15.5</v>
       </c>
       <c r="B23" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="D23" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E23" t="n">
         <v>2.76</v>
@@ -4662,16 +4945,16 @@
         <v>16.87</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -4679,13 +4962,13 @@
         <v>15.2</v>
       </c>
       <c r="B24" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="D24" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E24" t="n">
         <v>3.15</v>
@@ -4697,16 +4980,16 @@
         <v>17.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4714,13 +4997,13 @@
         <v>13.3</v>
       </c>
       <c r="B25" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="D25" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="E25" t="n">
         <v>3.73</v>
@@ -4732,16 +5015,16 @@
         <v>15.41</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -4749,13 +5032,13 @@
         <v>19.2</v>
       </c>
       <c r="B26" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="D26" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E26" t="n">
         <v>3.08</v>
@@ -4767,16 +5050,16 @@
         <v>17.05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -4784,13 +5067,13 @@
         <v>27.3</v>
       </c>
       <c r="B27" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="D27" t="n">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E27" t="n">
         <v>4.08</v>
@@ -4802,30 +5085,30 @@
         <v>18.9</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>120.3</v>
       </c>
       <c r="D28" t="n">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E28" t="n">
         <v>4.43</v>
@@ -4837,16 +5120,16 @@
         <v>16.7</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4854,13 +5137,13 @@
         <v>30.4</v>
       </c>
       <c r="B29" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>95.1</v>
       </c>
       <c r="D29" t="n">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="E29" t="n">
         <v>3.77</v>
@@ -4872,16 +5155,16 @@
         <v>16.9</v>
       </c>
       <c r="H29" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4889,13 +5172,13 @@
         <v>15.8</v>
       </c>
       <c r="B30" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="D30" t="n">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="E30" t="n">
         <v>4.22</v>
@@ -4907,16 +5190,16 @@
         <v>14.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4924,13 +5207,13 @@
         <v>19.7</v>
       </c>
       <c r="B31" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="D31" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E31" t="n">
         <v>3.62</v>
@@ -4942,30 +5225,30 @@
         <v>15.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="D32" t="n">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="E32" t="n">
         <v>3.54</v>
@@ -4977,16 +5260,16 @@
         <v>14.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4994,13 +5277,13 @@
         <v>21.4</v>
       </c>
       <c r="B33" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="D33" t="n">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="E33" t="n">
         <v>4.11</v>
@@ -5012,19 +5295,20 @@
         <v>18.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/testthat/write_xlsx_helper.xlsx
+++ b/tests/testthat/write_xlsx_helper.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -395,12 +395,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1564,12 +1564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -4145,12 +4145,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
